--- a/player-analysis/server/customer_model_data/micro_seg.csv.xlsx
+++ b/player-analysis/server/customer_model_data/micro_seg.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDocs\angular_projects\graphs-app\customer_model_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
     <t>2016_09_10</t>
   </si>
   <si>
-    <t>2016_08_27</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -90,12 +87,15 @@
   </si>
   <si>
     <t>Active Casino</t>
+  </si>
+  <si>
+    <t>2016_09_25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
@@ -449,21 +449,21 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -576,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -611,13 +611,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2646</v>
@@ -646,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -786,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -821,13 +821,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>4646</v>
@@ -856,13 +856,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -891,13 +891,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -961,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1031,13 +1031,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3000</v>
@@ -1066,13 +1066,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1206,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -1241,13 +1241,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>5000</v>
@@ -1276,13 +1276,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
